--- a/biology/Botanique/Vierge_à_l'Enfant_avec_le_jeune_saint_Jean-Baptiste/Vierge_à_l'Enfant_avec_le_jeune_saint_Jean-Baptiste.xlsx
+++ b/biology/Botanique/Vierge_à_l'Enfant_avec_le_jeune_saint_Jean-Baptiste/Vierge_à_l'Enfant_avec_le_jeune_saint_Jean-Baptiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vierge_%C3%A0_l%27Enfant_avec_le_jeune_saint_Jean-Baptiste</t>
+          <t>Vierge_à_l'Enfant_avec_le_jeune_saint_Jean-Baptiste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vierge à l'Enfant avec le jeune saint Jean-Baptiste est un tableau réalisé vers 1505 par le peintre italien Sandro Botticelli et son atelier. Cette huile sur toile est une Madone qui représente Marie se penchant pour permettre au petit Jean le Baptiste de déposer un baiser sur les joues de l'Enfant Jésus. Conservée à la galerie Palatine, à Florence, l'œuvre connaît plusieurs variantes, parmi lesquelles une à Birmingham au Royaume-Uni et une autre à Champigny-en-Beauce, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vierge_%C3%A0_l%27Enfant_avec_le_jeune_saint_Jean-Baptiste</t>
+          <t>Vierge_à_l'Enfant_avec_le_jeune_saint_Jean-Baptiste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Variante à Birmingham, au Royaume-Uni
